--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Mc3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H2">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I2">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J2">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004180278750333334</v>
+        <v>0.014805311868</v>
       </c>
       <c r="R2">
-        <v>0.037622508753</v>
+        <v>0.133247806812</v>
       </c>
       <c r="S2">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="T2">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +581,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H3">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I3">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J3">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.014805311868</v>
+        <v>0.02692414916133334</v>
       </c>
       <c r="R3">
-        <v>0.133247806812</v>
+        <v>0.242317342452</v>
       </c>
       <c r="S3">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="T3">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +643,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H4">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I4">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J4">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,140 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01371972491033333</v>
+        <v>0.007264623485666667</v>
       </c>
       <c r="R4">
-        <v>0.123477524193</v>
+        <v>0.065381611371</v>
       </c>
       <c r="S4">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="T4">
-        <v>0.2968517908699051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.1365665</v>
-      </c>
-      <c r="H5">
-        <v>0.273133</v>
-      </c>
-      <c r="I5">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J5">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.018433</v>
-      </c>
-      <c r="N5">
-        <v>0.055299</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0025173302945</v>
-      </c>
-      <c r="R5">
-        <v>0.015103981767</v>
-      </c>
-      <c r="S5">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="T5">
-        <v>0.03631141834195056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.925984</v>
-      </c>
-      <c r="I6">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J6">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.018433</v>
-      </c>
-      <c r="N6">
-        <v>0.055299</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.01183388769066667</v>
-      </c>
-      <c r="R6">
-        <v>0.106504989216</v>
-      </c>
-      <c r="S6">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="T6">
-        <v>0.2560481917011247</v>
+        <v>0.148275522597887</v>
       </c>
     </row>
   </sheetData>
